--- a/biology/Botanique/Gustav_Kunze/Gustav_Kunze.xlsx
+++ b/biology/Botanique/Gustav_Kunze/Gustav_Kunze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gustav Kunze est un botaniste, entomologiste et médecin saxon, né le 4 octobre 1793 à Leipzig et décédé le 30 avril 1851 dans cette même ville.
 Après avoir obtenu son doctorat de médecine en 1819, il enseigna à l'université de Leipzig jusqu'à sa mort. Il a été directeur du jardin botanique de 1837 à 1851.
@@ -513,7 +525,9 @@
           <t>Extrait de ses publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gustav Kunze - Beiträge zur Monographie der Rohrkäfer. - Halle : Neue Schrift. Naturf. Ges., 1818.
 Gustav Kunze - Zeugophora (Jochträger) eine neue Käfergattung.- Halle : Neue Schrift. Naturf. Ges. Halle ; 1818.
@@ -549,7 +563,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses collections entomologiques et botaniques sont conservées au Musée d'histoire naturelle de Leipzig.
 </t>
@@ -580,7 +596,9 @@
           <t>Espèces qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du genre Kunzea, de la famille des Myrtacées, lui a été dédié ainsi que de nombreuses espèces.
 </t>
